--- a/Dados/Dados Demográficos SP.xlsx
+++ b/Dados/Dados Demográficos SP.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="Worksheet" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Worksheet!$A$1:$N$646</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -2338,7 +2341,7 @@
     <t xml:space="preserve">TIAGO RODRIGUES CERVANTES</t>
   </si>
   <si>
-    <t xml:space="preserve">Itaoca</t>
+    <t xml:space="preserve">Itaóca</t>
   </si>
   <si>
     <t xml:space="preserve">itaoquense</t>
@@ -5924,18 +5927,22 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:N1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P14" activeCellId="0" sqref="P14"/>
+      <selection pane="topLeft" activeCell="A255" activeCellId="0" sqref="A255"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5981,7 +5988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -6026,7 +6033,7 @@
         <v>1088430386.98</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -6071,7 +6078,7 @@
         <v>91701173.75</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -6116,7 +6123,7 @@
         <v>1036985330.43</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -6161,7 +6168,7 @@
         <v>170890216.56</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -6206,7 +6213,7 @@
         <v>499688144.72</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -6251,7 +6258,7 @@
         <v>169647813.48</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
@@ -6296,7 +6303,7 @@
         <v>144312589.2</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -6341,7 +6348,7 @@
         <v>2236617941.82</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -6386,7 +6393,7 @@
         <v>105812536.53</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -6431,7 +6438,7 @@
         <v>84458374.35</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -6476,7 +6483,7 @@
         <v>108822683.28</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
@@ -6521,7 +6528,7 @@
         <v>499478329.68</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
@@ -6566,7 +6573,7 @@
         <v>106873328.62</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>54</v>
       </c>
@@ -6611,7 +6618,7 @@
         <v>2152823540.79</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>57</v>
       </c>
@@ -6656,7 +6663,7 @@
         <v>116600451.2</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>60</v>
       </c>
@@ -6701,7 +6708,7 @@
         <v>536018676.68</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>63</v>
       </c>
@@ -6746,7 +6753,7 @@
         <v>51244634</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>66</v>
       </c>
@@ -6791,7 +6798,7 @@
         <v>52634925.38</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>69</v>
       </c>
@@ -6836,7 +6843,7 @@
         <v>11679292707.6</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>72</v>
       </c>
@@ -6881,7 +6888,7 @@
         <v>997441441.5</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>75</v>
       </c>
@@ -6926,7 +6933,7 @@
         <v>118463870.72</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>78</v>
       </c>
@@ -6971,7 +6978,7 @@
         <v>4740152947.6</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>81</v>
       </c>
@@ -7016,7 +7023,7 @@
         <v>190781980.95</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>84</v>
       </c>
@@ -7061,7 +7068,7 @@
         <v>1926963444.05</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>87</v>
       </c>
@@ -7106,7 +7113,7 @@
         <v>1038903869.44</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>90</v>
       </c>
@@ -7151,7 +7158,7 @@
         <v>187595224.84</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>93</v>
       </c>
@@ -7196,7 +7203,7 @@
         <v>76418774.32</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>96</v>
       </c>
@@ -7241,7 +7248,7 @@
         <v>1085230996.15</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>99</v>
       </c>
@@ -7286,7 +7293,7 @@
         <v>125168445.9</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>101</v>
       </c>
@@ -7331,7 +7338,7 @@
         <v>583897545.63</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>104</v>
       </c>
@@ -7376,7 +7383,7 @@
         <v>3493715530.38</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>107</v>
       </c>
@@ -7421,7 +7428,7 @@
         <v>7474592275.7</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>110</v>
       </c>
@@ -7466,7 +7473,7 @@
         <v>910614176.84</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>113</v>
       </c>
@@ -7511,7 +7518,7 @@
         <v>128965818.37</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>116</v>
       </c>
@@ -7556,7 +7563,7 @@
         <v>118042490.44</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>119</v>
       </c>
@@ -7601,7 +7608,7 @@
         <v>30381653.12</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>122</v>
       </c>
@@ -7646,7 +7653,7 @@
         <v>9682760830.06</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>125</v>
       </c>
@@ -7691,7 +7698,7 @@
         <v>5724430556.88</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>128</v>
       </c>
@@ -7736,7 +7743,7 @@
         <v>51375782.25</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>131</v>
       </c>
@@ -7781,7 +7788,7 @@
         <v>235129540.75</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>134</v>
       </c>
@@ -7826,7 +7833,7 @@
         <v>43461437.04</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>137</v>
       </c>
@@ -7871,7 +7878,7 @@
         <v>144122996.78</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>140</v>
       </c>
@@ -7916,7 +7923,7 @@
         <v>749741090.12</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>143</v>
       </c>
@@ -7961,7 +7968,7 @@
         <v>1246241717.73</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>146</v>
       </c>
@@ -8006,7 +8013,7 @@
         <v>6433627684.77</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>149</v>
       </c>
@@ -8051,7 +8058,7 @@
         <v>35012402.7</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>152</v>
       </c>
@@ -8096,7 +8103,7 @@
         <v>3431532761.28</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>155</v>
       </c>
@@ -8141,7 +8148,7 @@
         <v>7341388378.36</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>158</v>
       </c>
@@ -8186,7 +8193,7 @@
         <v>308700565.88</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>161</v>
       </c>
@@ -8231,7 +8238,7 @@
         <v>276871185.36</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>164</v>
       </c>
@@ -8276,7 +8283,7 @@
         <v>334448094.19</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>167</v>
       </c>
@@ -8321,7 +8328,7 @@
         <v>2789707583.04</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>170</v>
       </c>
@@ -8366,7 +8373,7 @@
         <v>369353142.53</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>173</v>
       </c>
@@ -8411,7 +8418,7 @@
         <v>63754008.34</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>176</v>
       </c>
@@ -8456,7 +8463,7 @@
         <v>207893359.18</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>179</v>
       </c>
@@ -8501,7 +8508,7 @@
         <v>186975822.25</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>182</v>
       </c>
@@ -8546,7 +8553,7 @@
         <v>54576165</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>185</v>
       </c>
@@ -8591,7 +8598,7 @@
         <v>97460163.36</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>188</v>
       </c>
@@ -8636,7 +8643,7 @@
         <v>1189502137.32</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>191</v>
       </c>
@@ -8681,7 +8688,7 @@
         <v>1282460620</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>194</v>
       </c>
@@ -8726,7 +8733,7 @@
         <v>82729860.76</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>197</v>
       </c>
@@ -8771,7 +8778,7 @@
         <v>90060668.44</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>200</v>
       </c>
@@ -8816,7 +8823,7 @@
         <v>4947550296.12</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>203</v>
       </c>
@@ -8861,7 +8868,7 @@
         <v>535260245.73</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>206</v>
       </c>
@@ -8906,7 +8913,7 @@
         <v>52131883230.32</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>209</v>
       </c>
@@ -8951,7 +8958,7 @@
         <v>959433564.96</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>212</v>
       </c>
@@ -8996,7 +9003,7 @@
         <v>1626318136.92</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>215</v>
       </c>
@@ -9041,7 +9048,7 @@
         <v>14932888376.64</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>218</v>
       </c>
@@ -9086,7 +9093,7 @@
         <v>3352153086.04</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>221</v>
       </c>
@@ -9131,7 +9138,7 @@
         <v>171686419.08</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>224</v>
       </c>
@@ -9176,7 +9183,7 @@
         <v>220871657.92</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>227</v>
       </c>
@@ -9221,7 +9228,7 @@
         <v>1811580320.66</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>230</v>
       </c>
@@ -9266,7 +9273,7 @@
         <v>199063981.06</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>233</v>
       </c>
@@ -9311,7 +9318,7 @@
         <v>3438418196.86</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>236</v>
       </c>
@@ -9356,7 +9363,7 @@
         <v>709221442.75</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>239</v>
       </c>
@@ -9401,7 +9408,7 @@
         <v>315475822.53</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>242</v>
       </c>
@@ -9446,7 +9453,7 @@
         <v>224005288.91</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>245</v>
       </c>
@@ -9491,7 +9498,7 @@
         <v>196411861</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>248</v>
       </c>
@@ -9536,7 +9543,7 @@
         <v>2521596781.6</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>251</v>
       </c>
@@ -9581,7 +9588,7 @@
         <v>967097385.88</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>254</v>
       </c>
@@ -9626,7 +9633,7 @@
         <v>64097281.33</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>257</v>
       </c>
@@ -9671,7 +9678,7 @@
         <v>71143969.85</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>260</v>
       </c>
@@ -9716,7 +9723,7 @@
         <v>394162866.15</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>263</v>
       </c>
@@ -9761,7 +9768,7 @@
         <v>380496784.98</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>266</v>
       </c>
@@ -9806,7 +9813,7 @@
         <v>67569489.66</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>269</v>
       </c>
@@ -9851,7 +9858,7 @@
         <v>4779778590.78</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>272</v>
       </c>
@@ -9896,7 +9903,7 @@
         <v>6516996853.7</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>275</v>
       </c>
@@ -9941,7 +9948,7 @@
         <v>101039649.7</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>278</v>
       </c>
@@ -9986,7 +9993,7 @@
         <v>85208055.66</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
         <v>281</v>
       </c>
@@ -10031,7 +10038,7 @@
         <v>696536399.7</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>284</v>
       </c>
@@ -10076,7 +10083,7 @@
         <v>676884607.54</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>287</v>
       </c>
@@ -10121,7 +10128,7 @@
         <v>419162493</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>290</v>
       </c>
@@ -10166,7 +10173,7 @@
         <v>651027788.34</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
         <v>293</v>
       </c>
@@ -10211,7 +10218,7 @@
         <v>181967438.81</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
         <v>296</v>
       </c>
@@ -10256,7 +10263,7 @@
         <v>81317788.78</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
         <v>299</v>
       </c>
@@ -10301,7 +10308,7 @@
         <v>4883843520.8</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
         <v>302</v>
       </c>
@@ -10346,7 +10353,7 @@
         <v>4423024260</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
         <v>305</v>
       </c>
@@ -10391,7 +10398,7 @@
         <v>622477012.06</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
         <v>308</v>
       </c>
@@ -10436,7 +10443,7 @@
         <v>358661270.96</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
         <v>311</v>
       </c>
@@ -10481,7 +10488,7 @@
         <v>511542354.39</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
         <v>314</v>
       </c>
@@ -10526,7 +10533,7 @@
         <v>58283819.8</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
         <v>317</v>
       </c>
@@ -10571,7 +10578,7 @@
         <v>3695363001.64</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
         <v>320</v>
       </c>
@@ -10616,7 +10623,7 @@
         <v>78439356.93</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
         <v>323</v>
       </c>
@@ -10661,7 +10668,7 @@
         <v>17732035836.06</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
         <v>326</v>
       </c>
@@ -10706,7 +10713,7 @@
         <v>1444148088.18</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
         <v>329</v>
       </c>
@@ -10751,7 +10758,7 @@
         <v>158390244.28</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
         <v>332</v>
       </c>
@@ -10796,7 +10803,7 @@
         <v>587123231.76</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
         <v>335</v>
       </c>
@@ -10841,7 +10848,7 @@
         <v>110410202.48</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
         <v>338</v>
       </c>
@@ -10886,7 +10893,7 @@
         <v>62895715053.28</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
         <v>341</v>
       </c>
@@ -10931,7 +10938,7 @@
         <v>2178412061.42</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
         <v>344</v>
       </c>
@@ -10976,7 +10983,7 @@
         <v>1270777593.24</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
         <v>347</v>
       </c>
@@ -11021,7 +11028,7 @@
         <v>144537703.68</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
         <v>350</v>
       </c>
@@ -11066,7 +11073,7 @@
         <v>300728815.08</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
         <v>353</v>
       </c>
@@ -11111,7 +11118,7 @@
         <v>108642280.08</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
         <v>356</v>
       </c>
@@ -11156,7 +11163,7 @@
         <v>1173873366</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
         <v>359</v>
       </c>
@@ -11201,7 +11208,7 @@
         <v>100747269.15</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
         <v>362</v>
       </c>
@@ -11246,7 +11253,7 @@
         <v>196965352.3</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
         <v>365</v>
       </c>
@@ -11291,7 +11298,7 @@
         <v>905290439.16</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
         <v>368</v>
       </c>
@@ -11336,7 +11343,7 @@
         <v>283653620.57</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
         <v>371</v>
       </c>
@@ -11381,7 +11388,7 @@
         <v>2128135258.2</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
         <v>374</v>
       </c>
@@ -11426,7 +11433,7 @@
         <v>3480753758.72</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
         <v>377</v>
       </c>
@@ -11471,7 +11478,7 @@
         <v>5842803648.75</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
         <v>380</v>
       </c>
@@ -11516,7 +11523,7 @@
         <v>256951731.79</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
         <v>383</v>
       </c>
@@ -11561,7 +11568,7 @@
         <v>842658128.2</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
         <v>386</v>
       </c>
@@ -11606,7 +11613,7 @@
         <v>145751866.72</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
         <v>389</v>
       </c>
@@ -11651,7 +11658,7 @@
         <v>897601096.15</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
         <v>392</v>
       </c>
@@ -11696,7 +11703,7 @@
         <v>4261120814.52</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
         <v>395</v>
       </c>
@@ -11741,7 +11748,7 @@
         <v>119200364.55</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
         <v>398</v>
       </c>
@@ -11786,7 +11793,7 @@
         <v>323621073.24</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
         <v>401</v>
       </c>
@@ -11831,7 +11838,7 @@
         <v>624070837.11</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
         <v>404</v>
       </c>
@@ -11876,7 +11883,7 @@
         <v>1930732681.71</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
         <v>407</v>
       </c>
@@ -11921,7 +11928,7 @@
         <v>448660717.85</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
         <v>410</v>
       </c>
@@ -11966,7 +11973,7 @@
         <v>364933096.05</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
         <v>413</v>
       </c>
@@ -12011,7 +12018,7 @@
         <v>230757942.9</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
         <v>416</v>
       </c>
@@ -12056,7 +12063,7 @@
         <v>1120117622.14</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
         <v>419</v>
       </c>
@@ -12101,7 +12108,7 @@
         <v>331109836.89</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
         <v>422</v>
       </c>
@@ -12146,7 +12153,7 @@
         <v>708984004.59</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
         <v>425</v>
       </c>
@@ -12191,7 +12198,7 @@
         <v>359689780.74</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
         <v>428</v>
       </c>
@@ -12236,7 +12243,7 @@
         <v>2926507027.08</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
         <v>431</v>
       </c>
@@ -12281,7 +12288,7 @@
         <v>171337692.53</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
         <v>434</v>
       </c>
@@ -12326,7 +12333,7 @@
         <v>74643783.52</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
         <v>437</v>
       </c>
@@ -12371,7 +12378,7 @@
         <v>250096864.96</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
         <v>440</v>
       </c>
@@ -12416,7 +12423,7 @@
         <v>1673202298.32</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
         <v>443</v>
       </c>
@@ -12461,7 +12468,7 @@
         <v>334656431.17</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
         <v>446</v>
       </c>
@@ -12506,7 +12513,7 @@
         <v>13210131812.18</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
         <v>449</v>
       </c>
@@ -12551,7 +12558,7 @@
         <v>1225111160.54</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
         <v>452</v>
       </c>
@@ -12596,7 +12603,7 @@
         <v>199098331.3</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
         <v>455</v>
       </c>
@@ -12641,7 +12648,7 @@
         <v>100601600.73</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
         <v>458</v>
       </c>
@@ -12686,7 +12693,7 @@
         <v>2465561735.05</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
         <v>461</v>
       </c>
@@ -12731,7 +12738,7 @@
         <v>13463747963.89</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
         <v>464</v>
       </c>
@@ -12776,7 +12783,7 @@
         <v>255865373.39</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
         <v>467</v>
       </c>
@@ -12821,7 +12828,7 @@
         <v>1613735996.6</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
         <v>470</v>
       </c>
@@ -12866,7 +12873,7 @@
         <v>14972287412.5</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
         <v>473</v>
       </c>
@@ -12911,7 +12918,7 @@
         <v>58001184.1</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
         <v>476</v>
       </c>
@@ -12956,7 +12963,7 @@
         <v>275022642.68</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
         <v>479</v>
       </c>
@@ -13001,7 +13008,7 @@
         <v>118557958.4</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
         <v>482</v>
       </c>
@@ -13046,7 +13053,7 @@
         <v>662033899.76</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
         <v>485</v>
       </c>
@@ -13091,7 +13098,7 @@
         <v>46050609.12</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
         <v>488</v>
       </c>
@@ -13136,7 +13143,7 @@
         <v>628240847.85</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
         <v>491</v>
       </c>
@@ -13181,7 +13188,7 @@
         <v>1219051294.08</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
         <v>494</v>
       </c>
@@ -13226,7 +13233,7 @@
         <v>236593096.43</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
         <v>497</v>
       </c>
@@ -13271,7 +13278,7 @@
         <v>239982684.16</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
         <v>500</v>
       </c>
@@ -13316,7 +13323,7 @@
         <v>123092921.22</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
         <v>503</v>
       </c>
@@ -13361,7 +13368,7 @@
         <v>324240629.44</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
         <v>506</v>
       </c>
@@ -13406,7 +13413,7 @@
         <v>726415451.3</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
         <v>509</v>
       </c>
@@ -13451,7 +13458,7 @@
         <v>66177270</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
         <v>512</v>
       </c>
@@ -13496,7 +13503,7 @@
         <v>51950178.18</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
         <v>515</v>
       </c>
@@ -13541,7 +13548,7 @@
         <v>13660103610.24</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
         <v>518</v>
       </c>
@@ -13586,7 +13593,7 @@
         <v>1147083018.66</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
         <v>521</v>
       </c>
@@ -13631,7 +13638,7 @@
         <v>62441592</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
         <v>524</v>
       </c>
@@ -13676,7 +13683,7 @@
         <v>710011928.32</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
         <v>527</v>
       </c>
@@ -13721,7 +13728,7 @@
         <v>1446888710.52</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
         <v>530</v>
       </c>
@@ -13766,7 +13773,7 @@
         <v>81112107.12</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
         <v>533</v>
       </c>
@@ -13811,7 +13818,7 @@
         <v>626261412.8</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
         <v>536</v>
       </c>
@@ -13856,7 +13863,7 @@
         <v>50810137.44</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
         <v>538</v>
       </c>
@@ -13901,7 +13908,7 @@
         <v>156769731.2</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
         <v>541</v>
       </c>
@@ -13946,7 +13953,7 @@
         <v>372967727.64</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
         <v>544</v>
       </c>
@@ -13991,7 +13998,7 @@
         <v>2031084203.2</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
         <v>547</v>
       </c>
@@ -14036,7 +14043,7 @@
         <v>192535421.85</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
         <v>550</v>
       </c>
@@ -14081,7 +14088,7 @@
         <v>51057005.22</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
         <v>553</v>
       </c>
@@ -14126,7 +14133,7 @@
         <v>3246921343.83</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
         <v>556</v>
       </c>
@@ -14171,7 +14178,7 @@
         <v>35384836.52</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
         <v>559</v>
       </c>
@@ -14216,7 +14223,7 @@
         <v>62888705.88</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
         <v>562</v>
       </c>
@@ -14261,7 +14268,7 @@
         <v>213052630.32</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
         <v>565</v>
       </c>
@@ -14306,7 +14313,7 @@
         <v>132662623.59</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
         <v>568</v>
       </c>
@@ -14351,7 +14358,7 @@
         <v>10225094862.42</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
         <v>571</v>
       </c>
@@ -14396,7 +14403,7 @@
         <v>1564016216.8</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
         <v>574</v>
       </c>
@@ -14441,7 +14448,7 @@
         <v>3113314621.9</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
         <v>577</v>
       </c>
@@ -14486,7 +14493,7 @@
         <v>74118394.96</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
         <v>580</v>
       </c>
@@ -14531,7 +14538,7 @@
         <v>138932643.43</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
         <v>583</v>
       </c>
@@ -14576,7 +14583,7 @@
         <v>1194001384.73</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
         <v>586</v>
       </c>
@@ -14621,7 +14628,7 @@
         <v>79045982.7</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
         <v>589</v>
       </c>
@@ -14666,7 +14673,7 @@
         <v>901818852.52</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
         <v>592</v>
       </c>
@@ -14711,7 +14718,7 @@
         <v>248023398.35</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
         <v>595</v>
       </c>
@@ -14756,7 +14763,7 @@
         <v>187027827.05</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
         <v>598</v>
       </c>
@@ -14801,7 +14808,7 @@
         <v>102372566.04</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
         <v>601</v>
       </c>
@@ -14846,7 +14853,7 @@
         <v>202367018.24</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
         <v>604</v>
       </c>
@@ -14891,7 +14898,7 @@
         <v>76429138.92</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
         <v>607</v>
       </c>
@@ -14936,7 +14943,7 @@
         <v>3309651504.72</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
         <v>610</v>
       </c>
@@ -14981,7 +14988,7 @@
         <v>574451727.33</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
         <v>613</v>
       </c>
@@ -15026,7 +15033,7 @@
         <v>318900510.72</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
         <v>616</v>
       </c>
@@ -15071,7 +15078,7 @@
         <v>445093826.34</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
         <v>619</v>
       </c>
@@ -15116,7 +15123,7 @@
         <v>270617963.2</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
         <v>622</v>
       </c>
@@ -15161,7 +15168,7 @@
         <v>337853840.94</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
         <v>625</v>
       </c>
@@ -15206,7 +15213,7 @@
         <v>35439938.08</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
         <v>628</v>
       </c>
@@ -15251,7 +15258,7 @@
         <v>174987629.6</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
         <v>631</v>
       </c>
@@ -15296,7 +15303,7 @@
         <v>923364641.64</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
         <v>634</v>
       </c>
@@ -15341,7 +15348,7 @@
         <v>1462252063.05</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
         <v>637</v>
       </c>
@@ -15386,7 +15393,7 @@
         <v>5771457733.68</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
         <v>640</v>
       </c>
@@ -15431,7 +15438,7 @@
         <v>236301309.68</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
         <v>643</v>
       </c>
@@ -15476,7 +15483,7 @@
         <v>925703586.12</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
         <v>646</v>
       </c>
@@ -15521,7 +15528,7 @@
         <v>8784716518.37</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
         <v>649</v>
       </c>
@@ -15566,7 +15573,7 @@
         <v>63067529803.8</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
         <v>652</v>
       </c>
@@ -15611,7 +15618,7 @@
         <v>217284345.6</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
         <v>655</v>
       </c>
@@ -15656,7 +15663,7 @@
         <v>67332014.64</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
         <v>658</v>
       </c>
@@ -15701,7 +15708,7 @@
         <v>320177074.09</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
         <v>661</v>
       </c>
@@ -15746,7 +15753,7 @@
         <v>1038320184.3</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
         <v>664</v>
       </c>
@@ -15791,7 +15798,7 @@
         <v>13705829047.5</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
         <v>667</v>
       </c>
@@ -15836,7 +15843,7 @@
         <v>444356887.14</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
         <v>670</v>
       </c>
@@ -15881,7 +15888,7 @@
         <v>189058934.75</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
         <v>673</v>
       </c>
@@ -15926,7 +15933,7 @@
         <v>166671824.76</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
         <v>676</v>
       </c>
@@ -15971,7 +15978,7 @@
         <v>876191836.2</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
         <v>679</v>
       </c>
@@ -16016,7 +16023,7 @@
         <v>258784536.12</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
         <v>682</v>
       </c>
@@ -16061,7 +16068,7 @@
         <v>189836418.6</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
         <v>685</v>
       </c>
@@ -16106,7 +16113,7 @@
         <v>1567303240.5</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
         <v>688</v>
       </c>
@@ -16151,7 +16158,7 @@
         <v>1741068283</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
         <v>691</v>
       </c>
@@ -16196,7 +16203,7 @@
         <v>177656881.6</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
         <v>694</v>
       </c>
@@ -16241,7 +16248,7 @@
         <v>250424445.92</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
         <v>697</v>
       </c>
@@ -16286,7 +16293,7 @@
         <v>306175970.56</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
         <v>700</v>
       </c>
@@ -16331,7 +16338,7 @@
         <v>1200929672.42</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
         <v>703</v>
       </c>
@@ -16376,7 +16383,7 @@
         <v>183461689.48</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
         <v>706</v>
       </c>
@@ -16421,7 +16428,7 @@
         <v>1184898953.11</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
         <v>709</v>
       </c>
@@ -16466,7 +16473,7 @@
         <v>15181834620.68</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
         <v>712</v>
       </c>
@@ -16511,7 +16518,7 @@
         <v>1411701994.24</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
         <v>715</v>
       </c>
@@ -16556,7 +16563,7 @@
         <v>632494494.3</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
         <v>718</v>
       </c>
@@ -16601,7 +16608,7 @@
         <v>16466864457.4</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
         <v>721</v>
       </c>
@@ -16646,7 +16653,7 @@
         <v>63880985.41</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
         <v>724</v>
       </c>
@@ -16691,7 +16698,7 @@
         <v>94767618.6</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
         <v>727</v>
       </c>
@@ -16736,7 +16743,7 @@
         <v>141122364.5</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
         <v>730</v>
       </c>
@@ -16781,7 +16788,7 @@
         <v>380436317.55</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
         <v>733</v>
       </c>
@@ -16826,7 +16833,7 @@
         <v>692954083</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
         <v>736</v>
       </c>
@@ -16871,7 +16878,7 @@
         <v>736089509.28</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
         <v>739</v>
       </c>
@@ -16916,7 +16923,7 @@
         <v>112549533.05</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
         <v>742</v>
       </c>
@@ -16961,7 +16968,7 @@
         <v>50572733.2</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
         <v>745</v>
       </c>
@@ -17006,7 +17013,7 @@
         <v>371804381.28</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
         <v>748</v>
       </c>
@@ -17051,7 +17058,7 @@
         <v>2085427160.58</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
         <v>751</v>
       </c>
@@ -17096,7 +17103,7 @@
         <v>159984623.75</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
         <v>754</v>
       </c>
@@ -17141,7 +17148,7 @@
         <v>89073706.6</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
         <v>757</v>
       </c>
@@ -17186,7 +17193,7 @@
         <v>514660628.5</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
         <v>760</v>
       </c>
@@ -17231,7 +17238,7 @@
         <v>618320435.04</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
         <v>763</v>
       </c>
@@ -17276,7 +17283,7 @@
         <v>1610337884.62</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
         <v>766</v>
       </c>
@@ -17321,7 +17328,7 @@
         <v>90902416.62</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
         <v>769</v>
       </c>
@@ -17411,7 +17418,7 @@
         <v>41373077.48</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
         <v>775</v>
       </c>
@@ -17456,7 +17463,7 @@
         <v>3785349886.14</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
         <v>778</v>
       </c>
@@ -17501,7 +17508,7 @@
         <v>4897009579.86</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
         <v>781</v>
       </c>
@@ -17546,7 +17553,7 @@
         <v>2558209451.58</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
         <v>784</v>
       </c>
@@ -17591,7 +17598,7 @@
         <v>12679973717.82</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
         <v>787</v>
       </c>
@@ -17636,7 +17643,7 @@
         <v>3978302627.22</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
         <v>790</v>
       </c>
@@ -17681,7 +17688,7 @@
         <v>42917413.56</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
         <v>793</v>
       </c>
@@ -17726,7 +17733,7 @@
         <v>1328062197.12</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
         <v>796</v>
       </c>
@@ -17771,7 +17778,7 @@
         <v>322630942.27</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
         <v>799</v>
       </c>
@@ -17816,7 +17823,7 @@
         <v>687731879.31</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
         <v>802</v>
       </c>
@@ -17861,7 +17868,7 @@
         <v>94030977.26</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
         <v>805</v>
       </c>
@@ -17906,7 +17913,7 @@
         <v>7459780300.28</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
         <v>808</v>
       </c>
@@ -17951,7 +17958,7 @@
         <v>886179179.34</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
         <v>811</v>
       </c>
@@ -17996,7 +18003,7 @@
         <v>283897645.02</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="s">
         <v>814</v>
       </c>
@@ -18041,7 +18048,7 @@
         <v>6313576852.44</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="s">
         <v>817</v>
       </c>
@@ -18086,7 +18093,7 @@
         <v>423867601.55</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
         <v>820</v>
       </c>
@@ -18131,7 +18138,7 @@
         <v>426971649.3</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
         <v>823</v>
       </c>
@@ -18176,7 +18183,7 @@
         <v>100620772.42</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
         <v>826</v>
       </c>
@@ -18221,7 +18228,7 @@
         <v>125316742.1</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="s">
         <v>829</v>
       </c>
@@ -18266,7 +18273,7 @@
         <v>8053439179.5</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
         <v>832</v>
       </c>
@@ -18311,7 +18318,7 @@
         <v>7215203909.2</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="s">
         <v>835</v>
       </c>
@@ -18356,7 +18363,7 @@
         <v>1548848554.47</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
         <v>838</v>
       </c>
@@ -18401,7 +18408,7 @@
         <v>138885947.64</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
         <v>841</v>
       </c>
@@ -18446,7 +18453,7 @@
         <v>2950905403.74</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
         <v>844</v>
       </c>
@@ -18491,7 +18498,7 @@
         <v>12993405100.62</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
         <v>847</v>
       </c>
@@ -18536,7 +18543,7 @@
         <v>415181342.94</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
         <v>850</v>
       </c>
@@ -18581,7 +18588,7 @@
         <v>532475581.67</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
         <v>853</v>
       </c>
@@ -18626,7 +18633,7 @@
         <v>12288642422.33</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
         <v>856</v>
       </c>
@@ -18671,7 +18678,7 @@
         <v>1555411515.79</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
         <v>859</v>
       </c>
@@ -18716,7 +18723,7 @@
         <v>250956312</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="s">
         <v>862</v>
       </c>
@@ -18761,7 +18768,7 @@
         <v>4152988717.86</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
         <v>865</v>
       </c>
@@ -18806,7 +18813,7 @@
         <v>1141342204.24</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
         <v>868</v>
       </c>
@@ -18851,7 +18858,7 @@
         <v>2656607637.39</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
         <v>871</v>
       </c>
@@ -18896,7 +18903,7 @@
         <v>4888617577.05</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
         <v>874</v>
       </c>
@@ -18941,7 +18948,7 @@
         <v>81735695.09</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
         <v>877</v>
       </c>
@@ -18986,7 +18993,7 @@
         <v>218778336.26</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
         <v>880</v>
       </c>
@@ -19031,7 +19038,7 @@
         <v>123079557.76</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="s">
         <v>883</v>
       </c>
@@ -19076,7 +19083,7 @@
         <v>1358647311.9</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
         <v>886</v>
       </c>
@@ -19121,7 +19128,7 @@
         <v>51901512.48</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
         <v>889</v>
       </c>
@@ -19166,7 +19173,7 @@
         <v>137541402.53</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
         <v>892</v>
       </c>
@@ -19211,7 +19218,7 @@
         <v>44908289352.75</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
         <v>895</v>
       </c>
@@ -19256,7 +19263,7 @@
         <v>588885395.46</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
         <v>898</v>
       </c>
@@ -19301,7 +19308,7 @@
         <v>324011076.9</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
         <v>901</v>
       </c>
@@ -19346,7 +19353,7 @@
         <v>523923600.08</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
         <v>904</v>
       </c>
@@ -19391,7 +19398,7 @@
         <v>56348336.92</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
         <v>907</v>
       </c>
@@ -19436,7 +19443,7 @@
         <v>1144373663.57</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
         <v>910</v>
       </c>
@@ -19481,7 +19488,7 @@
         <v>169854697.09</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
         <v>913</v>
       </c>
@@ -19526,7 +19533,7 @@
         <v>112306114.51</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
         <v>916</v>
       </c>
@@ -19571,7 +19578,7 @@
         <v>3297210365.61</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
         <v>919</v>
       </c>
@@ -19616,7 +19623,7 @@
         <v>2704164792.54</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="s">
         <v>922</v>
       </c>
@@ -19661,7 +19668,7 @@
         <v>13500494323.58</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="s">
         <v>925</v>
       </c>
@@ -19706,7 +19713,7 @@
         <v>190137888.72</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="s">
         <v>928</v>
       </c>
@@ -19751,7 +19758,7 @@
         <v>3857058063.36</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
         <v>931</v>
       </c>
@@ -19796,7 +19803,7 @@
         <v>2866936403.52</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="s">
         <v>934</v>
       </c>
@@ -19841,7 +19848,7 @@
         <v>40628165.74</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="s">
         <v>937</v>
       </c>
@@ -19886,7 +19893,7 @@
         <v>11711752974.9</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="s">
         <v>940</v>
       </c>
@@ -19931,7 +19938,7 @@
         <v>449706196.94</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
         <v>943</v>
       </c>
@@ -19976,7 +19983,7 @@
         <v>57650852.16</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="s">
         <v>946</v>
       </c>
@@ -20021,7 +20028,7 @@
         <v>1616459675.68</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
         <v>949</v>
       </c>
@@ -20066,7 +20073,7 @@
         <v>74191362.08</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="s">
         <v>952</v>
       </c>
@@ -20111,7 +20118,7 @@
         <v>77984087.04</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="s">
         <v>955</v>
       </c>
@@ -20156,7 +20163,7 @@
         <v>83984105.82</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="s">
         <v>958</v>
       </c>
@@ -20201,7 +20208,7 @@
         <v>633949666.89</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="s">
         <v>961</v>
       </c>
@@ -20246,7 +20253,7 @@
         <v>156298977.52</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
         <v>964</v>
       </c>
@@ -20291,7 +20298,7 @@
         <v>78190491.38</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
         <v>967</v>
       </c>
@@ -20336,7 +20343,7 @@
         <v>92068618.94</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
         <v>970</v>
       </c>
@@ -20381,7 +20388,7 @@
         <v>1932062791.62</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
         <v>973</v>
       </c>
@@ -20426,7 +20433,7 @@
         <v>1842243234.75</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
         <v>976</v>
       </c>
@@ -20471,7 +20478,7 @@
         <v>233127210.96</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
         <v>979</v>
       </c>
@@ -20516,7 +20523,7 @@
         <v>106555195.89</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
         <v>982</v>
       </c>
@@ -20561,7 +20568,7 @@
         <v>415446174.11</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
         <v>985</v>
       </c>
@@ -20606,7 +20613,7 @@
         <v>185457155.48</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
         <v>988</v>
       </c>
@@ -20651,7 +20658,7 @@
         <v>57068870.94</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
         <v>991</v>
       </c>
@@ -20696,7 +20703,7 @@
         <v>8256781001.14</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
         <v>994</v>
       </c>
@@ -20741,7 +20748,7 @@
         <v>34468627.82</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
         <v>997</v>
       </c>
@@ -20786,7 +20793,7 @@
         <v>505573496.82</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
         <v>1000</v>
       </c>
@@ -20831,7 +20838,7 @@
         <v>4222650518.91</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
         <v>1003</v>
       </c>
@@ -20876,7 +20883,7 @@
         <v>15730840671.75</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
         <v>1006</v>
       </c>
@@ -20921,7 +20928,7 @@
         <v>243218865.98</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
         <v>1009</v>
       </c>
@@ -20966,7 +20973,7 @@
         <v>238963150.32</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
         <v>1012</v>
       </c>
@@ -21011,7 +21018,7 @@
         <v>58582827.38</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
         <v>1015</v>
       </c>
@@ -21056,7 +21063,7 @@
         <v>1033057609.6</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
         <v>1018</v>
       </c>
@@ -21101,7 +21108,7 @@
         <v>174621109.41</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
         <v>1021</v>
       </c>
@@ -21146,7 +21153,7 @@
         <v>384493521.5</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
         <v>1024</v>
       </c>
@@ -21191,7 +21198,7 @@
         <v>67702968.75</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
         <v>1027</v>
       </c>
@@ -21236,7 +21243,7 @@
         <v>663452413.92</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
         <v>1030</v>
       </c>
@@ -21281,7 +21288,7 @@
         <v>350385519.7</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
         <v>1033</v>
       </c>
@@ -21326,7 +21333,7 @@
         <v>1854004334.4</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
         <v>1036</v>
       </c>
@@ -21371,7 +21378,7 @@
         <v>132413324.68</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
         <v>1039</v>
       </c>
@@ -21416,7 +21423,7 @@
         <v>2129370265.44</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
         <v>1042</v>
       </c>
@@ -21461,7 +21468,7 @@
         <v>15903772227.97</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
         <v>1045</v>
       </c>
@@ -21506,7 +21513,7 @@
         <v>6007288507.32</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
         <v>1048</v>
       </c>
@@ -21551,7 +21558,7 @@
         <v>4670210772.3</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
         <v>1051</v>
       </c>
@@ -21596,7 +21603,7 @@
         <v>101405503.55</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
         <v>1054</v>
       </c>
@@ -21641,7 +21648,7 @@
         <v>60331744.14</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
         <v>1057</v>
       </c>
@@ -21686,7 +21693,7 @@
         <v>1088278523.59</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
         <v>1060</v>
       </c>
@@ -21731,7 +21738,7 @@
         <v>183186579.51</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
         <v>1063</v>
       </c>
@@ -21776,7 +21783,7 @@
         <v>1832366450.7</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
         <v>1066</v>
       </c>
@@ -21821,7 +21828,7 @@
         <v>681916700.91</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="s">
         <v>1069</v>
       </c>
@@ -21866,7 +21873,7 @@
         <v>530613923.84</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
         <v>1072</v>
       </c>
@@ -21911,7 +21918,7 @@
         <v>102928278.84</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="s">
         <v>1075</v>
       </c>
@@ -21956,7 +21963,7 @@
         <v>67169069.52</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
         <v>1078</v>
       </c>
@@ -22001,7 +22008,7 @@
         <v>3659923623.24</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="s">
         <v>1081</v>
       </c>
@@ -22046,7 +22053,7 @@
         <v>1210774485.8</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="s">
         <v>1084</v>
       </c>
@@ -22091,7 +22098,7 @@
         <v>472088689.28</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="s">
         <v>1087</v>
       </c>
@@ -22136,7 +22143,7 @@
         <v>83510260.23</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
         <v>1090</v>
       </c>
@@ -22181,7 +22188,7 @@
         <v>66171880.5</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
         <v>1093</v>
       </c>
@@ -22226,7 +22233,7 @@
         <v>123755863.05</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
         <v>1096</v>
       </c>
@@ -22271,7 +22278,7 @@
         <v>191393334</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
         <v>1099</v>
       </c>
@@ -22316,7 +22323,7 @@
         <v>71857350.72</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
         <v>1102</v>
       </c>
@@ -22361,7 +22368,7 @@
         <v>351873350.54</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="s">
         <v>1105</v>
       </c>
@@ -22406,7 +22413,7 @@
         <v>211962440.2</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
         <v>1108</v>
       </c>
@@ -22451,7 +22458,7 @@
         <v>328598392.25</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
         <v>1111</v>
       </c>
@@ -22496,7 +22503,7 @@
         <v>98627326.61</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="s">
         <v>1114</v>
       </c>
@@ -22541,7 +22548,7 @@
         <v>180500524.05</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
         <v>1117</v>
       </c>
@@ -22586,7 +22593,7 @@
         <v>113751196.62</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
         <v>1120</v>
       </c>
@@ -22631,7 +22638,7 @@
         <v>37731647.04</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
         <v>1123</v>
       </c>
@@ -22676,7 +22683,7 @@
         <v>41752320.6</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
         <v>1125</v>
       </c>
@@ -22721,7 +22728,7 @@
         <v>293561830.19</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="s">
         <v>1128</v>
       </c>
@@ -22766,7 +22773,7 @@
         <v>445701891.57</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
         <v>1131</v>
       </c>
@@ -22811,7 +22818,7 @@
         <v>31572115.72</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
         <v>1134</v>
       </c>
@@ -22856,7 +22863,7 @@
         <v>150431713.5</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="s">
         <v>1137</v>
       </c>
@@ -22901,7 +22908,7 @@
         <v>61762926.15</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
         <v>1140</v>
       </c>
@@ -22946,7 +22953,7 @@
         <v>52004170.51</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
         <v>1143</v>
       </c>
@@ -22991,7 +22998,7 @@
         <v>3680360217.96</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
         <v>1146</v>
       </c>
@@ -23036,7 +23043,7 @@
         <v>1124130034</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="s">
         <v>1149</v>
       </c>
@@ -23081,7 +23088,7 @@
         <v>530452793.96</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="s">
         <v>1152</v>
       </c>
@@ -23126,7 +23133,7 @@
         <v>116112765.8</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
         <v>1155</v>
       </c>
@@ -23171,7 +23178,7 @@
         <v>80677761.29</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
         <v>1158</v>
       </c>
@@ -23216,7 +23223,7 @@
         <v>2074119708.54</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
         <v>1161</v>
       </c>
@@ -23261,7 +23268,7 @@
         <v>170333548.12</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
         <v>1164</v>
       </c>
@@ -23306,7 +23313,7 @@
         <v>100796509.63</v>
       </c>
     </row>
-    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="s">
         <v>1167</v>
       </c>
@@ -23351,7 +23358,7 @@
         <v>426494796.32</v>
       </c>
     </row>
-    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
         <v>1170</v>
       </c>
@@ -23396,7 +23403,7 @@
         <v>1876790556.96</v>
       </c>
     </row>
-    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
         <v>1173</v>
       </c>
@@ -23441,7 +23448,7 @@
         <v>77112335907.88</v>
       </c>
     </row>
-    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
         <v>1176</v>
       </c>
@@ -23486,7 +23493,7 @@
         <v>90845506.93</v>
       </c>
     </row>
-    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
         <v>1179</v>
       </c>
@@ -23531,7 +23538,7 @@
         <v>858767623.72</v>
       </c>
     </row>
-    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
         <v>1182</v>
       </c>
@@ -23576,7 +23583,7 @@
         <v>3135527423.06</v>
       </c>
     </row>
-    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="s">
         <v>1185</v>
       </c>
@@ -23621,7 +23628,7 @@
         <v>443751455.68</v>
       </c>
     </row>
-    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
         <v>1188</v>
       </c>
@@ -23666,7 +23673,7 @@
         <v>114614645.04</v>
       </c>
     </row>
-    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="s">
         <v>1191</v>
       </c>
@@ -23711,7 +23718,7 @@
         <v>308617425.22</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="s">
         <v>1194</v>
       </c>
@@ -23756,7 +23763,7 @@
         <v>317130087.65</v>
       </c>
     </row>
-    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="s">
         <v>1197</v>
       </c>
@@ -23801,7 +23808,7 @@
         <v>128369417.29</v>
       </c>
     </row>
-    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="s">
         <v>1200</v>
       </c>
@@ -23846,7 +23853,7 @@
         <v>184254932.18</v>
       </c>
     </row>
-    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="s">
         <v>1203</v>
       </c>
@@ -23891,7 +23898,7 @@
         <v>690570803.16</v>
       </c>
     </row>
-    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="s">
         <v>1206</v>
       </c>
@@ -23936,7 +23943,7 @@
         <v>268291760.72</v>
       </c>
     </row>
-    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
         <v>1209</v>
       </c>
@@ -23981,7 +23988,7 @@
         <v>1560532108.4</v>
       </c>
     </row>
-    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="s">
         <v>1212</v>
       </c>
@@ -24026,7 +24033,7 @@
         <v>280686243.74</v>
       </c>
     </row>
-    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
         <v>1215</v>
       </c>
@@ -24071,7 +24078,7 @@
         <v>226045403.12</v>
       </c>
     </row>
-    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="1" t="s">
         <v>1218</v>
       </c>
@@ -24116,7 +24123,7 @@
         <v>642310394.52</v>
       </c>
     </row>
-    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="1" t="s">
         <v>1221</v>
       </c>
@@ -24161,7 +24168,7 @@
         <v>113020746.08</v>
       </c>
     </row>
-    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="1" t="s">
         <v>1224</v>
       </c>
@@ -24206,7 +24213,7 @@
         <v>351188161.94</v>
       </c>
     </row>
-    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="1" t="s">
         <v>1227</v>
       </c>
@@ -24251,7 +24258,7 @@
         <v>312203879.19</v>
       </c>
     </row>
-    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="1" t="s">
         <v>1230</v>
       </c>
@@ -24296,7 +24303,7 @@
         <v>513269098.17</v>
       </c>
     </row>
-    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="s">
         <v>1233</v>
       </c>
@@ -24341,7 +24348,7 @@
         <v>67586706.6</v>
       </c>
     </row>
-    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="1" t="s">
         <v>1236</v>
       </c>
@@ -24386,7 +24393,7 @@
         <v>908294915.51</v>
       </c>
     </row>
-    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="s">
         <v>1239</v>
       </c>
@@ -24431,7 +24438,7 @@
         <v>156117886.6</v>
       </c>
     </row>
-    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="1" t="s">
         <v>1242</v>
       </c>
@@ -24476,7 +24483,7 @@
         <v>35058132270.36</v>
       </c>
     </row>
-    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="1" t="s">
         <v>1245</v>
       </c>
@@ -24521,7 +24528,7 @@
         <v>41160756.55</v>
       </c>
     </row>
-    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="s">
         <v>1248</v>
       </c>
@@ -24566,7 +24573,7 @@
         <v>270182054.88</v>
       </c>
     </row>
-    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="s">
         <v>1251</v>
       </c>
@@ -24611,7 +24618,7 @@
         <v>2254062462.54</v>
       </c>
     </row>
-    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="1" t="s">
         <v>1254</v>
       </c>
@@ -24656,7 +24663,7 @@
         <v>84443110.51</v>
       </c>
     </row>
-    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="s">
         <v>1257</v>
       </c>
@@ -24701,7 +24708,7 @@
         <v>63358594.72</v>
       </c>
     </row>
-    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="s">
         <v>1260</v>
       </c>
@@ -24746,7 +24753,7 @@
         <v>884620681.36</v>
       </c>
     </row>
-    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="s">
         <v>1263</v>
       </c>
@@ -24791,7 +24798,7 @@
         <v>1296896137.28</v>
       </c>
     </row>
-    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="s">
         <v>1266</v>
       </c>
@@ -24836,7 +24843,7 @@
         <v>137930443.01</v>
       </c>
     </row>
-    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="s">
         <v>1269</v>
       </c>
@@ -24881,7 +24888,7 @@
         <v>147144611.8</v>
       </c>
     </row>
-    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="s">
         <v>1272</v>
       </c>
@@ -24926,7 +24933,7 @@
         <v>1691918629.38</v>
       </c>
     </row>
-    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="1" t="s">
         <v>1275</v>
       </c>
@@ -24971,7 +24978,7 @@
         <v>759079335.85</v>
       </c>
     </row>
-    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="s">
         <v>1278</v>
       </c>
@@ -25016,7 +25023,7 @@
         <v>212600536.25</v>
       </c>
     </row>
-    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="1" t="s">
         <v>1281</v>
       </c>
@@ -25061,7 +25068,7 @@
         <v>1570837955.7</v>
       </c>
     </row>
-    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="1" t="s">
         <v>1284</v>
       </c>
@@ -25106,7 +25113,7 @@
         <v>94431568.41</v>
       </c>
     </row>
-    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="1" t="s">
         <v>1287</v>
       </c>
@@ -25151,7 +25158,7 @@
         <v>1221417872.61</v>
       </c>
     </row>
-    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="s">
         <v>1290</v>
       </c>
@@ -25196,7 +25203,7 @@
         <v>692034216.72</v>
       </c>
     </row>
-    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="1" t="s">
         <v>1293</v>
       </c>
@@ -25241,7 +25248,7 @@
         <v>8896970424.3</v>
       </c>
     </row>
-    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="1" t="s">
         <v>1296</v>
       </c>
@@ -25286,7 +25293,7 @@
         <v>383736130.16</v>
       </c>
     </row>
-    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="1" t="s">
         <v>1299</v>
       </c>
@@ -25331,7 +25338,7 @@
         <v>271988526.36</v>
       </c>
     </row>
-    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="s">
         <v>1302</v>
       </c>
@@ -25376,7 +25383,7 @@
         <v>55921427.58</v>
       </c>
     </row>
-    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="s">
         <v>1305</v>
       </c>
@@ -25421,7 +25428,7 @@
         <v>161581572.8</v>
       </c>
     </row>
-    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="1" t="s">
         <v>1308</v>
       </c>
@@ -25466,7 +25473,7 @@
         <v>484422064.24</v>
       </c>
     </row>
-    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="s">
         <v>1311</v>
       </c>
@@ -25511,7 +25518,7 @@
         <v>27035620893.5</v>
       </c>
     </row>
-    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="1" t="s">
         <v>1314</v>
       </c>
@@ -25556,7 +25563,7 @@
         <v>746351839.4</v>
       </c>
     </row>
-    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="s">
         <v>1317</v>
       </c>
@@ -25601,7 +25608,7 @@
         <v>485120256.65</v>
       </c>
     </row>
-    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="1" t="s">
         <v>1320</v>
       </c>
@@ -25646,7 +25653,7 @@
         <v>337532313.24</v>
       </c>
     </row>
-    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="s">
         <v>1323</v>
       </c>
@@ -25691,7 +25698,7 @@
         <v>478303749.98</v>
       </c>
     </row>
-    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="1" t="s">
         <v>1326</v>
       </c>
@@ -25736,7 +25743,7 @@
         <v>974598774.3</v>
       </c>
     </row>
-    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="1" t="s">
         <v>1329</v>
       </c>
@@ -25781,7 +25788,7 @@
         <v>2843089261.1</v>
       </c>
     </row>
-    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="1" t="s">
         <v>1332</v>
       </c>
@@ -25826,7 +25833,7 @@
         <v>242130757.8</v>
       </c>
     </row>
-    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="1" t="s">
         <v>1335</v>
       </c>
@@ -25871,7 +25878,7 @@
         <v>1093782303.9</v>
       </c>
     </row>
-    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="s">
         <v>1338</v>
       </c>
@@ -25916,7 +25923,7 @@
         <v>161982613.2</v>
       </c>
     </row>
-    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="1" t="s">
         <v>1341</v>
       </c>
@@ -25961,7 +25968,7 @@
         <v>96645776.28</v>
       </c>
     </row>
-    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="1" t="s">
         <v>1344</v>
       </c>
@@ -26006,7 +26013,7 @@
         <v>4767992338.69</v>
       </c>
     </row>
-    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="1" t="s">
         <v>1347</v>
       </c>
@@ -26051,7 +26058,7 @@
         <v>135565182.72</v>
       </c>
     </row>
-    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="s">
         <v>1350</v>
       </c>
@@ -26096,7 +26103,7 @@
         <v>1271507226.36</v>
       </c>
     </row>
-    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="1" t="s">
         <v>1353</v>
       </c>
@@ -26141,7 +26148,7 @@
         <v>80133680.45</v>
       </c>
     </row>
-    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="s">
         <v>1356</v>
       </c>
@@ -26186,7 +26193,7 @@
         <v>1229455828.92</v>
       </c>
     </row>
-    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="s">
         <v>1359</v>
       </c>
@@ -26231,7 +26238,7 @@
         <v>80269859.67</v>
       </c>
     </row>
-    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="1" t="s">
         <v>1362</v>
       </c>
@@ -26276,7 +26283,7 @@
         <v>156012786.72</v>
       </c>
     </row>
-    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="s">
         <v>1365</v>
       </c>
@@ -26321,7 +26328,7 @@
         <v>95057026.24</v>
       </c>
     </row>
-    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="s">
         <v>1368</v>
       </c>
@@ -26366,7 +26373,7 @@
         <v>183960942.75</v>
       </c>
     </row>
-    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="s">
         <v>1371</v>
       </c>
@@ -26411,7 +26418,7 @@
         <v>2644807999.24</v>
       </c>
     </row>
-    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="s">
         <v>1374</v>
       </c>
@@ -26456,7 +26463,7 @@
         <v>2090163956.32</v>
       </c>
     </row>
-    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="1" t="s">
         <v>1377</v>
       </c>
@@ -26501,7 +26508,7 @@
         <v>230566024.29</v>
       </c>
     </row>
-    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="1" t="s">
         <v>1380</v>
       </c>
@@ -26546,7 +26553,7 @@
         <v>529145822.52</v>
       </c>
     </row>
-    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="1" t="s">
         <v>1383</v>
       </c>
@@ -26591,7 +26598,7 @@
         <v>35727952.46</v>
       </c>
     </row>
-    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="1" t="s">
         <v>1386</v>
       </c>
@@ -26636,7 +26643,7 @@
         <v>911289504.51</v>
       </c>
     </row>
-    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="1" t="s">
         <v>1389</v>
       </c>
@@ -26681,7 +26688,7 @@
         <v>7423712834.78</v>
       </c>
     </row>
-    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="s">
         <v>1392</v>
       </c>
@@ -26726,7 +26733,7 @@
         <v>135423642.06</v>
       </c>
     </row>
-    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="1" t="s">
         <v>1395</v>
       </c>
@@ -26771,7 +26778,7 @@
         <v>72641744.42</v>
       </c>
     </row>
-    <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="s">
         <v>1398</v>
       </c>
@@ -26816,7 +26823,7 @@
         <v>265258242.62</v>
       </c>
     </row>
-    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="1" t="s">
         <v>1401</v>
       </c>
@@ -26861,7 +26868,7 @@
         <v>863094882.32</v>
       </c>
     </row>
-    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="1" t="s">
         <v>1404</v>
       </c>
@@ -26906,7 +26913,7 @@
         <v>8166385507.71</v>
       </c>
     </row>
-    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="1" t="s">
         <v>1407</v>
       </c>
@@ -26951,7 +26958,7 @@
         <v>720143276.16</v>
       </c>
     </row>
-    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="1" t="s">
         <v>1410</v>
       </c>
@@ -26996,7 +27003,7 @@
         <v>1674329986.53</v>
       </c>
     </row>
-    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="1" t="s">
         <v>1413</v>
       </c>
@@ -27041,7 +27048,7 @@
         <v>102988256.42</v>
       </c>
     </row>
-    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="1" t="s">
         <v>1416</v>
       </c>
@@ -27086,7 +27093,7 @@
         <v>470203327.03</v>
       </c>
     </row>
-    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="1" t="s">
         <v>1419</v>
       </c>
@@ -27131,7 +27138,7 @@
         <v>341731747.29</v>
       </c>
     </row>
-    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="1" t="s">
         <v>1422</v>
       </c>
@@ -27176,7 +27183,7 @@
         <v>350544043.8</v>
       </c>
     </row>
-    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="1" t="s">
         <v>1425</v>
       </c>
@@ -27221,7 +27228,7 @@
         <v>176894230.72</v>
       </c>
     </row>
-    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="1" t="s">
         <v>1428</v>
       </c>
@@ -27266,7 +27273,7 @@
         <v>324758566.08</v>
       </c>
     </row>
-    <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="1" t="s">
         <v>1431</v>
       </c>
@@ -27311,7 +27318,7 @@
         <v>1107106140.63</v>
       </c>
     </row>
-    <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="1" t="s">
         <v>1434</v>
       </c>
@@ -27356,7 +27363,7 @@
         <v>52687533.64</v>
       </c>
     </row>
-    <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="477" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="1" t="s">
         <v>1437</v>
       </c>
@@ -27401,7 +27408,7 @@
         <v>724737523.89</v>
       </c>
     </row>
-    <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="1" t="s">
         <v>1440</v>
       </c>
@@ -27446,7 +27453,7 @@
         <v>155010842.79</v>
       </c>
     </row>
-    <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="479" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="1" t="s">
         <v>1443</v>
       </c>
@@ -27491,7 +27498,7 @@
         <v>1974074651.01</v>
       </c>
     </row>
-    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="1" t="s">
         <v>1446</v>
       </c>
@@ -27536,7 +27543,7 @@
         <v>171745737.76</v>
       </c>
     </row>
-    <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="1" t="s">
         <v>1449</v>
       </c>
@@ -27581,7 +27588,7 @@
         <v>47679449.6</v>
       </c>
     </row>
-    <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="482" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="1" t="s">
         <v>1452</v>
       </c>
@@ -27626,7 +27633,7 @@
         <v>260842968.32</v>
       </c>
     </row>
-    <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="483" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="1" t="s">
         <v>1455</v>
       </c>
@@ -27671,7 +27678,7 @@
         <v>287328863.52</v>
       </c>
     </row>
-    <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="484" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="1" t="s">
         <v>1458</v>
       </c>
@@ -27716,7 +27723,7 @@
         <v>112700967.3</v>
       </c>
     </row>
-    <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="485" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="1" t="s">
         <v>1461</v>
       </c>
@@ -27761,7 +27768,7 @@
         <v>151502679.9</v>
       </c>
     </row>
-    <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="486" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="1" t="s">
         <v>1464</v>
       </c>
@@ -27806,7 +27813,7 @@
         <v>35618904.42</v>
       </c>
     </row>
-    <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="487" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="1" t="s">
         <v>1467</v>
       </c>
@@ -27851,7 +27858,7 @@
         <v>267419843.46</v>
       </c>
     </row>
-    <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="488" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="1" t="s">
         <v>1470</v>
       </c>
@@ -27896,7 +27903,7 @@
         <v>3108228069.66</v>
       </c>
     </row>
-    <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="489" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="1" t="s">
         <v>1473</v>
       </c>
@@ -27941,7 +27948,7 @@
         <v>35591942133.64</v>
       </c>
     </row>
-    <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="490" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="1" t="s">
         <v>1476</v>
       </c>
@@ -27986,7 +27993,7 @@
         <v>66243737.16</v>
       </c>
     </row>
-    <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="491" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="1" t="s">
         <v>1479</v>
       </c>
@@ -28031,7 +28038,7 @@
         <v>121410974.67</v>
       </c>
     </row>
-    <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="492" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="1" t="s">
         <v>1482</v>
       </c>
@@ -28076,7 +28083,7 @@
         <v>196742219.52</v>
       </c>
     </row>
-    <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="493" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="1" t="s">
         <v>1485</v>
       </c>
@@ -28121,7 +28128,7 @@
         <v>253121901.2</v>
       </c>
     </row>
-    <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="494" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="1" t="s">
         <v>1488</v>
       </c>
@@ -28166,7 +28173,7 @@
         <v>10027198694.88</v>
       </c>
     </row>
-    <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="495" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="1" t="s">
         <v>1491</v>
       </c>
@@ -28211,7 +28218,7 @@
         <v>1452467560.71</v>
       </c>
     </row>
-    <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="496" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="1" t="s">
         <v>1494</v>
       </c>
@@ -28256,7 +28263,7 @@
         <v>586786341.6</v>
       </c>
     </row>
-    <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="497" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="1" t="s">
         <v>1497</v>
       </c>
@@ -28301,7 +28308,7 @@
         <v>262566315.84</v>
       </c>
     </row>
-    <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="498" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="1" t="s">
         <v>1500</v>
       </c>
@@ -28346,7 +28353,7 @@
         <v>1119292122.53</v>
       </c>
     </row>
-    <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="499" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="1" t="s">
         <v>1503</v>
       </c>
@@ -28391,7 +28398,7 @@
         <v>301024346.8</v>
       </c>
     </row>
-    <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="500" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="1" t="s">
         <v>1506</v>
       </c>
@@ -28436,7 +28443,7 @@
         <v>64853739.45</v>
       </c>
     </row>
-    <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="501" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="1" t="s">
         <v>1509</v>
       </c>
@@ -28481,7 +28488,7 @@
         <v>79664336.12</v>
       </c>
     </row>
-    <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="502" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="1" t="s">
         <v>1512</v>
       </c>
@@ -28526,7 +28533,7 @@
         <v>119797126.08</v>
       </c>
     </row>
-    <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="503" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="1" t="s">
         <v>1515</v>
       </c>
@@ -28571,7 +28578,7 @@
         <v>37500474.99</v>
       </c>
     </row>
-    <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="504" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="1" t="s">
         <v>1518</v>
       </c>
@@ -28616,7 +28623,7 @@
         <v>148145225.59</v>
       </c>
     </row>
-    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="505" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="1" t="s">
         <v>1521</v>
       </c>
@@ -28661,7 +28668,7 @@
         <v>355566654.17</v>
       </c>
     </row>
-    <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="506" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="1" t="s">
         <v>1523</v>
       </c>
@@ -28706,7 +28713,7 @@
         <v>206609629.46</v>
       </c>
     </row>
-    <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="507" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="1" t="s">
         <v>1526</v>
       </c>
@@ -28751,7 +28758,7 @@
         <v>73135321.24</v>
       </c>
     </row>
-    <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="508" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="1" t="s">
         <v>1529</v>
       </c>
@@ -28796,7 +28803,7 @@
         <v>254960820.1</v>
       </c>
     </row>
-    <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="509" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="1" t="s">
         <v>1532</v>
       </c>
@@ -28841,7 +28848,7 @@
         <v>7510994789.68</v>
       </c>
     </row>
-    <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="510" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="1" t="s">
         <v>1535</v>
       </c>
@@ -28886,7 +28893,7 @@
         <v>1737097803.95</v>
       </c>
     </row>
-    <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="511" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="1" t="s">
         <v>1537</v>
       </c>
@@ -28931,7 +28938,7 @@
         <v>224424963.36</v>
       </c>
     </row>
-    <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="512" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="1" t="s">
         <v>1540</v>
       </c>
@@ -28976,7 +28983,7 @@
         <v>397137664.55</v>
       </c>
     </row>
-    <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="513" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="1" t="s">
         <v>1543</v>
       </c>
@@ -29021,7 +29028,7 @@
         <v>311858550.12</v>
       </c>
     </row>
-    <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="514" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="1" t="s">
         <v>1546</v>
       </c>
@@ -29066,7 +29073,7 @@
         <v>184352960.64</v>
       </c>
     </row>
-    <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="515" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="1" t="s">
         <v>1549</v>
       </c>
@@ -29111,7 +29118,7 @@
         <v>6014224569.06</v>
       </c>
     </row>
-    <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="516" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="1" t="s">
         <v>1552</v>
       </c>
@@ -29156,7 +29163,7 @@
         <v>247912011</v>
       </c>
     </row>
-    <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="517" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="1" t="s">
         <v>1555</v>
       </c>
@@ -29201,7 +29208,7 @@
         <v>67927378.02</v>
       </c>
     </row>
-    <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="518" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="1" t="s">
         <v>1558</v>
       </c>
@@ -29246,7 +29253,7 @@
         <v>127071963.84</v>
       </c>
     </row>
-    <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="519" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="1" t="s">
         <v>1561</v>
       </c>
@@ -29291,7 +29298,7 @@
         <v>52654571.94</v>
       </c>
     </row>
-    <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="520" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="1" t="s">
         <v>1564</v>
       </c>
@@ -29336,7 +29343,7 @@
         <v>516867472.46</v>
       </c>
     </row>
-    <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="521" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="1" t="s">
         <v>1566</v>
       </c>
@@ -29381,7 +29388,7 @@
         <v>2068405697.25</v>
       </c>
     </row>
-    <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="522" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="1" t="s">
         <v>1568</v>
       </c>
@@ -29426,7 +29433,7 @@
         <v>92231031.75</v>
       </c>
     </row>
-    <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="523" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="1" t="s">
         <v>1571</v>
       </c>
@@ -29471,7 +29478,7 @@
         <v>1109129563.8</v>
       </c>
     </row>
-    <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="524" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="1" t="s">
         <v>1574</v>
       </c>
@@ -29516,7 +29523,7 @@
         <v>1865953063.5</v>
       </c>
     </row>
-    <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="525" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="1" t="s">
         <v>1577</v>
       </c>
@@ -29561,7 +29568,7 @@
         <v>1624333681.27</v>
       </c>
     </row>
-    <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="526" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="1" t="s">
         <v>1580</v>
       </c>
@@ -29606,7 +29613,7 @@
         <v>116273542.29</v>
       </c>
     </row>
-    <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="527" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="1" t="s">
         <v>1583</v>
       </c>
@@ -29651,7 +29658,7 @@
         <v>137777441.24</v>
       </c>
     </row>
-    <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="528" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="1" t="s">
         <v>1586</v>
       </c>
@@ -29696,7 +29703,7 @@
         <v>66725178.31</v>
       </c>
     </row>
-    <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="529" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="1" t="s">
         <v>1589</v>
       </c>
@@ -29741,7 +29748,7 @@
         <v>34058741.04</v>
       </c>
     </row>
-    <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="530" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="1" t="s">
         <v>1592</v>
       </c>
@@ -29786,7 +29793,7 @@
         <v>9814281296.72</v>
       </c>
     </row>
-    <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="531" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="1" t="s">
         <v>1595</v>
       </c>
@@ -29831,7 +29838,7 @@
         <v>62656962.72</v>
       </c>
     </row>
-    <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="532" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="1" t="s">
         <v>1598</v>
       </c>
@@ -29876,7 +29883,7 @@
         <v>667057212.49</v>
       </c>
     </row>
-    <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="533" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="1" t="s">
         <v>1600</v>
       </c>
@@ -29921,7 +29928,7 @@
         <v>712786543.2</v>
       </c>
     </row>
-    <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="534" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="1" t="s">
         <v>1603</v>
       </c>
@@ -29966,7 +29973,7 @@
         <v>36418265.58</v>
       </c>
     </row>
-    <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="535" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="1" t="s">
         <v>1606</v>
       </c>
@@ -30011,7 +30018,7 @@
         <v>412235988.35</v>
       </c>
     </row>
-    <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="536" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="1" t="s">
         <v>1609</v>
       </c>
@@ -30056,7 +30063,7 @@
         <v>29309693737.69</v>
       </c>
     </row>
-    <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="537" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="1" t="s">
         <v>1612</v>
       </c>
@@ -30101,7 +30108,7 @@
         <v>133127768.48</v>
       </c>
     </row>
-    <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="538" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="1" t="s">
         <v>1615</v>
       </c>
@@ -30146,7 +30153,7 @@
         <v>1160509197.42</v>
       </c>
     </row>
-    <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="539" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="1" t="s">
         <v>1618</v>
       </c>
@@ -30191,7 +30198,7 @@
         <v>212018965.47</v>
       </c>
     </row>
-    <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="540" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="1" t="s">
         <v>1621</v>
       </c>
@@ -30236,7 +30243,7 @@
         <v>149971533.88</v>
       </c>
     </row>
-    <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="541" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="1" t="s">
         <v>1624</v>
       </c>
@@ -30281,7 +30288,7 @@
         <v>111258489.39</v>
       </c>
     </row>
-    <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="542" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="1" t="s">
         <v>1626</v>
       </c>
@@ -30326,7 +30333,7 @@
         <v>39086275.41</v>
       </c>
     </row>
-    <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="543" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="1" t="s">
         <v>1629</v>
       </c>
@@ -30371,7 +30378,7 @@
         <v>72144766.48</v>
       </c>
     </row>
-    <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="544" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="1" t="s">
         <v>1632</v>
       </c>
@@ -30416,7 +30423,7 @@
         <v>22530655784.73</v>
       </c>
     </row>
-    <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="545" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="1" t="s">
         <v>1635</v>
       </c>
@@ -30461,7 +30468,7 @@
         <v>204242518.74</v>
       </c>
     </row>
-    <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="546" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="1" t="s">
         <v>1638</v>
       </c>
@@ -30506,7 +30513,7 @@
         <v>51578198657.02</v>
       </c>
     </row>
-    <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="547" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="1" t="s">
         <v>1641</v>
       </c>
@@ -30551,7 +30558,7 @@
         <v>13649373540.46</v>
       </c>
     </row>
-    <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="548" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="1" t="s">
         <v>1644</v>
       </c>
@@ -30596,7 +30603,7 @@
         <v>11508977579.45</v>
       </c>
     </row>
-    <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="549" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="1" t="s">
         <v>1647</v>
       </c>
@@ -30641,7 +30648,7 @@
         <v>47610137.52</v>
       </c>
     </row>
-    <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="550" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="1" t="s">
         <v>1650</v>
       </c>
@@ -30686,7 +30693,7 @@
         <v>3186948280.1</v>
       </c>
     </row>
-    <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="551" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="1" t="s">
         <v>1653</v>
       </c>
@@ -30731,7 +30738,7 @@
         <v>44052211.35</v>
       </c>
     </row>
-    <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="552" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="1" t="s">
         <v>1655</v>
       </c>
@@ -30776,7 +30783,7 @@
         <v>34368797.46</v>
       </c>
     </row>
-    <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="553" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="1" t="s">
         <v>1658</v>
       </c>
@@ -30821,7 +30828,7 @@
         <v>45873020.85</v>
       </c>
     </row>
-    <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="554" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="1" t="s">
         <v>1660</v>
       </c>
@@ -30866,7 +30873,7 @@
         <v>1740907435.44</v>
       </c>
     </row>
-    <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="555" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="1" t="s">
         <v>1663</v>
       </c>
@@ -30911,7 +30918,7 @@
         <v>163809276.75</v>
       </c>
     </row>
-    <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="556" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="1" t="s">
         <v>1666</v>
       </c>
@@ -30956,7 +30963,7 @@
         <v>52845909.83</v>
       </c>
     </row>
-    <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="557" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="1" t="s">
         <v>1669</v>
       </c>
@@ -31001,7 +31008,7 @@
         <v>1837399364.54</v>
       </c>
     </row>
-    <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="558" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="1" t="s">
         <v>1672</v>
       </c>
@@ -31046,7 +31053,7 @@
         <v>18039561098.1</v>
       </c>
     </row>
-    <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="559" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="1" t="s">
         <v>1675</v>
       </c>
@@ -31091,7 +31098,7 @@
         <v>40996780645.8</v>
       </c>
     </row>
-    <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="560" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="1" t="s">
         <v>1678</v>
       </c>
@@ -31136,7 +31143,7 @@
         <v>214810027.3</v>
       </c>
     </row>
-    <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="561" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="1" t="s">
         <v>1681</v>
       </c>
@@ -31181,7 +31188,7 @@
         <v>164618414.21</v>
       </c>
     </row>
-    <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="562" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="1" t="s">
         <v>1684</v>
       </c>
@@ -31226,7 +31233,7 @@
         <v>1220301692.72</v>
       </c>
     </row>
-    <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="563" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="1" t="s">
         <v>1687</v>
       </c>
@@ -31271,7 +31278,7 @@
         <v>685466254.81</v>
       </c>
     </row>
-    <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="564" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="1" t="s">
         <v>1690</v>
       </c>
@@ -31316,7 +31323,7 @@
         <v>727566625786.8</v>
       </c>
     </row>
-    <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="565" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="1" t="s">
         <v>1693</v>
       </c>
@@ -31361,7 +31368,7 @@
         <v>773756117.46</v>
       </c>
     </row>
-    <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="566" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="1" t="s">
         <v>1696</v>
       </c>
@@ -31406,7 +31413,7 @@
         <v>184099763.48</v>
       </c>
     </row>
-    <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="567" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="1" t="s">
         <v>1698</v>
       </c>
@@ -31451,7 +31458,7 @@
         <v>3075162163.76</v>
       </c>
     </row>
-    <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="568" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="1" t="s">
         <v>1701</v>
       </c>
@@ -31496,7 +31503,7 @@
         <v>3956303765.05</v>
       </c>
     </row>
-    <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="569" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="1" t="s">
         <v>1704</v>
       </c>
@@ -31541,7 +31548,7 @@
         <v>283840615.43</v>
       </c>
     </row>
-    <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="570" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="1" t="s">
         <v>1707</v>
       </c>
@@ -31586,7 +31593,7 @@
         <v>448692861.98</v>
       </c>
     </row>
-    <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="571" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="1" t="s">
         <v>1710</v>
       </c>
@@ -31631,7 +31638,7 @@
         <v>5565091871.64</v>
       </c>
     </row>
-    <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="572" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="1" t="s">
         <v>1713</v>
       </c>
@@ -31676,7 +31683,7 @@
         <v>149936365.74</v>
       </c>
     </row>
-    <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="573" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="1" t="s">
         <v>1716</v>
       </c>
@@ -31721,7 +31728,7 @@
         <v>61139646.66</v>
       </c>
     </row>
-    <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="574" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="1" t="s">
         <v>1719</v>
       </c>
@@ -31766,7 +31773,7 @@
         <v>256053335.75</v>
       </c>
     </row>
-    <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="575" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="1" t="s">
         <v>1722</v>
       </c>
@@ -31811,7 +31818,7 @@
         <v>164526169.24</v>
       </c>
     </row>
-    <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="576" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="1" t="s">
         <v>1725</v>
       </c>
@@ -31856,7 +31863,7 @@
         <v>953970992.38</v>
       </c>
     </row>
-    <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="577" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="1" t="s">
         <v>1728</v>
       </c>
@@ -31901,7 +31908,7 @@
         <v>739082085.48</v>
       </c>
     </row>
-    <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="578" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="1" t="s">
         <v>1731</v>
       </c>
@@ -31946,7 +31953,7 @@
         <v>5672049014.56</v>
       </c>
     </row>
-    <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="579" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="1" t="s">
         <v>1734</v>
       </c>
@@ -31991,7 +31998,7 @@
         <v>366153235.56</v>
       </c>
     </row>
-    <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="580" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="1" t="s">
         <v>1736</v>
       </c>
@@ -32036,7 +32043,7 @@
         <v>238303830.6</v>
       </c>
     </row>
-    <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="581" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="1" t="s">
         <v>1739</v>
       </c>
@@ -32081,7 +32088,7 @@
         <v>74496465</v>
       </c>
     </row>
-    <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="582" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="1" t="s">
         <v>1742</v>
       </c>
@@ -32126,7 +32133,7 @@
         <v>883000036.6</v>
       </c>
     </row>
-    <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="583" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="1" t="s">
         <v>1745</v>
       </c>
@@ -32171,7 +32178,7 @@
         <v>36274656824.64</v>
       </c>
     </row>
-    <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="584" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="1" t="s">
         <v>1748</v>
       </c>
@@ -32216,7 +32223,7 @@
         <v>167869255.32</v>
       </c>
     </row>
-    <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="585" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="1" t="s">
         <v>1751</v>
       </c>
@@ -32261,7 +32268,7 @@
         <v>15024806797.5</v>
       </c>
     </row>
-    <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="586" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="1" t="s">
         <v>1754</v>
       </c>
@@ -32306,7 +32313,7 @@
         <v>11479271246.57</v>
       </c>
     </row>
-    <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="587" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="1" t="s">
         <v>1757</v>
       </c>
@@ -32351,7 +32358,7 @@
         <v>260727301.19</v>
       </c>
     </row>
-    <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="588" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="1" t="s">
         <v>1760</v>
       </c>
@@ -32396,7 +32403,7 @@
         <v>239576957.88</v>
       </c>
     </row>
-    <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="589" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="1" t="s">
         <v>1763</v>
       </c>
@@ -32441,7 +32448,7 @@
         <v>259997895.35</v>
       </c>
     </row>
-    <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="590" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="1" t="s">
         <v>1766</v>
       </c>
@@ -32486,7 +32493,7 @@
         <v>8729739295.2</v>
       </c>
     </row>
-    <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="591" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="1" t="s">
         <v>1769</v>
       </c>
@@ -32531,7 +32538,7 @@
         <v>159350368.93</v>
       </c>
     </row>
-    <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="592" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="1" t="s">
         <v>1772</v>
       </c>
@@ -32576,7 +32583,7 @@
         <v>288272034.9</v>
       </c>
     </row>
-    <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="593" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="1" t="s">
         <v>1775</v>
       </c>
@@ -32621,7 +32628,7 @@
         <v>98194894.46</v>
       </c>
     </row>
-    <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="594" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="1" t="s">
         <v>1778</v>
       </c>
@@ -32666,7 +32673,7 @@
         <v>113947748.46</v>
       </c>
     </row>
-    <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="595" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="1" t="s">
         <v>1781</v>
       </c>
@@ -32711,7 +32718,7 @@
         <v>563000759.4</v>
       </c>
     </row>
-    <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="596" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="1" t="s">
         <v>1784</v>
       </c>
@@ -32756,7 +32763,7 @@
         <v>941670341.34</v>
       </c>
     </row>
-    <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="597" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="1" t="s">
         <v>1787</v>
       </c>
@@ -32801,7 +32808,7 @@
         <v>139270626</v>
       </c>
     </row>
-    <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="598" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="1" t="s">
         <v>1790</v>
       </c>
@@ -32846,7 +32853,7 @@
         <v>324714289.6</v>
       </c>
     </row>
-    <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="599" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="1" t="s">
         <v>1793</v>
       </c>
@@ -32891,7 +32898,7 @@
         <v>38595930.15</v>
       </c>
     </row>
-    <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="600" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="1" t="s">
         <v>1796</v>
       </c>
@@ -32936,7 +32943,7 @@
         <v>1586093725.37</v>
       </c>
     </row>
-    <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="601" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="1" t="s">
         <v>1799</v>
       </c>
@@ -32981,7 +32988,7 @@
         <v>692171159.04</v>
       </c>
     </row>
-    <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="602" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="1" t="s">
         <v>1802</v>
       </c>
@@ -33026,7 +33033,7 @@
         <v>225297669.6</v>
       </c>
     </row>
-    <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="603" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="1" t="s">
         <v>1805</v>
       </c>
@@ -33071,7 +33078,7 @@
         <v>118012926.85</v>
       </c>
     </row>
-    <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="604" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="1" t="s">
         <v>1808</v>
       </c>
@@ -33116,7 +33123,7 @@
         <v>803249424.28</v>
       </c>
     </row>
-    <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="605" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="1" t="s">
         <v>1811</v>
       </c>
@@ -33161,7 +33168,7 @@
         <v>4121588927.16</v>
       </c>
     </row>
-    <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="606" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="1" t="s">
         <v>1814</v>
       </c>
@@ -33206,7 +33213,7 @@
         <v>17763668655.6</v>
       </c>
     </row>
-    <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="607" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="1" t="s">
         <v>1817</v>
       </c>
@@ -33251,7 +33258,7 @@
         <v>77948331.72</v>
       </c>
     </row>
-    <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="608" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="1" t="s">
         <v>1820</v>
       </c>
@@ -33296,7 +33303,7 @@
         <v>444617997.85</v>
       </c>
     </row>
-    <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="609" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="1" t="s">
         <v>1823</v>
       </c>
@@ -33341,7 +33348,7 @@
         <v>143822367.02</v>
       </c>
     </row>
-    <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="610" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="1" t="s">
         <v>1826</v>
       </c>
@@ -33386,7 +33393,7 @@
         <v>1883579779.96</v>
       </c>
     </row>
-    <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="611" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="1" t="s">
         <v>1829</v>
       </c>
@@ -33431,7 +33438,7 @@
         <v>43709858.06</v>
       </c>
     </row>
-    <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="612" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="1" t="s">
         <v>1832</v>
       </c>
@@ -33476,7 +33483,7 @@
         <v>30412451.84</v>
       </c>
     </row>
-    <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="613" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="1" t="s">
         <v>1835</v>
       </c>
@@ -33521,7 +33528,7 @@
         <v>206116861</v>
       </c>
     </row>
-    <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="614" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="1" t="s">
         <v>1838</v>
       </c>
@@ -33566,7 +33573,7 @@
         <v>41637594</v>
       </c>
     </row>
-    <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="615" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="1" t="s">
         <v>1841</v>
       </c>
@@ -33611,7 +33618,7 @@
         <v>781044743.52</v>
       </c>
     </row>
-    <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="616" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="1" t="s">
         <v>1844</v>
       </c>
@@ -33656,7 +33663,7 @@
         <v>108295417.92</v>
       </c>
     </row>
-    <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="617" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="1" t="s">
         <v>1847</v>
       </c>
@@ -33701,7 +33708,7 @@
         <v>141181315.16</v>
       </c>
     </row>
-    <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="618" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="1" t="s">
         <v>1850</v>
       </c>
@@ -33746,7 +33753,7 @@
         <v>1798700058.1</v>
       </c>
     </row>
-    <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="619" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="1" t="s">
         <v>1853</v>
       </c>
@@ -33791,7 +33798,7 @@
         <v>278706776.7</v>
       </c>
     </row>
-    <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="620" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="1" t="s">
         <v>1856</v>
       </c>
@@ -33836,7 +33843,7 @@
         <v>42281157.6</v>
       </c>
     </row>
-    <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="621" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="1" t="s">
         <v>1859</v>
       </c>
@@ -33881,7 +33888,7 @@
         <v>53093616.6</v>
       </c>
     </row>
-    <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="622" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="1" t="s">
         <v>1862</v>
       </c>
@@ -33926,7 +33933,7 @@
         <v>330129617.68</v>
       </c>
     </row>
-    <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="623" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="1" t="s">
         <v>1865</v>
       </c>
@@ -33971,7 +33978,7 @@
         <v>2211579749.2</v>
       </c>
     </row>
-    <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="624" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="1" t="s">
         <v>1868</v>
       </c>
@@ -34016,7 +34023,7 @@
         <v>94928136</v>
       </c>
     </row>
-    <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="625" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="1" t="s">
         <v>1871</v>
       </c>
@@ -34061,7 +34068,7 @@
         <v>226113322.05</v>
       </c>
     </row>
-    <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="626" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="1" t="s">
         <v>1874</v>
       </c>
@@ -34106,7 +34113,7 @@
         <v>47042724.32</v>
       </c>
     </row>
-    <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="627" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="1" t="s">
         <v>1877</v>
       </c>
@@ -34151,7 +34158,7 @@
         <v>215671382.5</v>
       </c>
     </row>
-    <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="628" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="1" t="s">
         <v>1880</v>
       </c>
@@ -34196,7 +34203,7 @@
         <v>40134368.06</v>
       </c>
     </row>
-    <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="629" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="1" t="s">
         <v>1883</v>
       </c>
@@ -34241,7 +34248,7 @@
         <v>399283928.4</v>
       </c>
     </row>
-    <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="630" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="1" t="s">
         <v>1886</v>
       </c>
@@ -34286,7 +34293,7 @@
         <v>340144935.68</v>
       </c>
     </row>
-    <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="631" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="1" t="s">
         <v>1889</v>
       </c>
@@ -34331,7 +34338,7 @@
         <v>6494420415.94</v>
       </c>
     </row>
-    <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="632" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="1" t="s">
         <v>1892</v>
       </c>
@@ -34376,7 +34383,7 @@
         <v>907676758</v>
       </c>
     </row>
-    <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="633" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="1" t="s">
         <v>1895</v>
       </c>
@@ -34421,7 +34428,7 @@
         <v>137758668.84</v>
       </c>
     </row>
-    <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="634" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="1" t="s">
         <v>1898</v>
       </c>
@@ -34466,7 +34473,7 @@
         <v>992349611.76</v>
       </c>
     </row>
-    <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="635" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="1" t="s">
         <v>1901</v>
       </c>
@@ -34511,7 +34518,7 @@
         <v>2187953764.2</v>
       </c>
     </row>
-    <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="636" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="1" t="s">
         <v>1903</v>
       </c>
@@ -34556,7 +34563,7 @@
         <v>2930894306.52</v>
       </c>
     </row>
-    <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="637" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="1" t="s">
         <v>1906</v>
       </c>
@@ -34601,7 +34608,7 @@
         <v>142058014.6</v>
       </c>
     </row>
-    <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="638" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="1" t="s">
         <v>1909</v>
       </c>
@@ -34646,7 +34653,7 @@
         <v>9781628987.88</v>
       </c>
     </row>
-    <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="639" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="1" t="s">
         <v>1912</v>
       </c>
@@ -34691,7 +34698,7 @@
         <v>352415701.58</v>
       </c>
     </row>
-    <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="640" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="1" t="s">
         <v>1915</v>
       </c>
@@ -34736,7 +34743,7 @@
         <v>367027263.68</v>
       </c>
     </row>
-    <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="641" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="1" t="s">
         <v>1918</v>
       </c>
@@ -34781,7 +34788,7 @@
         <v>36281865.28</v>
       </c>
     </row>
-    <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="642" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="1" t="s">
         <v>1921</v>
       </c>
@@ -34826,7 +34833,7 @@
         <v>3173347755.72</v>
       </c>
     </row>
-    <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="643" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="1" t="s">
         <v>1924</v>
       </c>
@@ -34871,7 +34878,7 @@
         <v>3002735864</v>
       </c>
     </row>
-    <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="644" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="1" t="s">
         <v>1927</v>
       </c>
@@ -34916,7 +34923,7 @@
         <v>91815178.56</v>
       </c>
     </row>
-    <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="645" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="1" t="s">
         <v>1930</v>
       </c>
@@ -34961,7 +34968,7 @@
         <v>207456101.44</v>
       </c>
     </row>
-    <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="646" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="1" t="s">
         <v>1933</v>
       </c>
@@ -35022,6 +35029,13 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <autoFilter ref="A1:N646">
+    <filterColumn colId="0">
+      <customFilters and="true">
+        <customFilter operator="equal" val="Itaoca"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -35029,5 +35043,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>